--- a/packages/jsreport-xlsx/test/xlsx/loop-multiple-rows-and-nested-multiple-loops-and-end-of-loops-on-single-line.xlsx
+++ b/packages/jsreport-xlsx/test/xlsx/loop-multiple-rows-and-nested-multiple-loops-and-end-of-loops-on-single-line.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjrmatos/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/workspace/jsreport/jsreport/packages/jsreport-xlsx/test/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52192E1-DBDD-C947-B2BC-46D76EBB2B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F7655E-B854-4041-B96F-479F6B3DCB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="14020" xr2:uid="{36000CE5-9E55-594C-992C-4D41C559D066}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17300" windowHeight="14020" xr2:uid="{36000CE5-9E55-594C-992C-4D41C559D066}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>{{#each categories}}{{name}}</t>
   </si>
@@ -95,13 +95,19 @@
   </si>
   <si>
     <t>{{#each posts}}Name:</t>
+  </si>
+  <si>
+    <t>Collaborators:</t>
+  </si>
+  <si>
+    <t>{{#each cells=collaborators}}{{this}}{{/each}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,8 +146,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +211,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -233,6 +257,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,7 +279,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -547,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413C66BD-901A-6C43-965D-E14AA4AD2D18}">
-  <dimension ref="A2:G17"/>
+  <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -593,127 +621,145 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>4</v>
-      </c>
+      <c r="B6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="B7" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>4</v>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="C12" s="6" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="14"/>
+      <c r="B16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="14"/>
+      <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>1</v>
       </c>
     </row>
